--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q7_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q7_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AA6651-6754-438B-9CC0-FC8A2783F9F6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B044661E-ED5D-4C83-8221-1CA203EE5761}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
   </bookViews>
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,26 +94,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Open Sans"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,35 +181,35 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,159 +536,159 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="41" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:4" ht="30" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="4">
         <v>10000</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="10" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="30" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9">
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>50</v>
       </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="8">
         <v>150</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="10" t="s">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9">
         <v>150</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>200</v>
       </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="10" t="s">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>250</v>
       </c>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="10" t="s">
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9">
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>150</v>
       </c>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="10" t="s">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6">
+      <c r="C13" s="8"/>
+      <c r="D13" s="9">
         <v>150</v>
       </c>
     </row>

--- a/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q7_Final.xlsx
+++ b/assets/public/Chapter_1_Introduction_to_business_and_accounting_concepts/documents/resources/class trial/q7_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Urja\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelu_singh\Dropbox\Accounting Courseware\Chapter_1_Introduction_to_business_and_accounting_concepts\documents\resources\class trial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B044661E-ED5D-4C83-8221-1CA203EE5761}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB86AF4-C430-4B0B-A679-8F87F9AD095B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{A857C96B-18FB-4148-8E37-4E6BA2B70B41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A34BA705-6451-48A8-BC72-139B2AC9FEF3}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -542,7 +542,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="2" width="41" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -692,6 +692,30 @@
         <v>150</v>
       </c>
     </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
